--- a/FINAL MATERIAL FOR PUBLISHED PAPER/supplementary tables/Supplementary Table 6 - species for which photographs were found via synonyms.xlsx
+++ b/FINAL MATERIAL FOR PUBLISHED PAPER/supplementary tables/Supplementary Table 6 - species for which photographs were found via synonyms.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\PhD\CHAPTER 1 - AUSTRALIAN PLANT PHOTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\PhD\CHAPTER 1 - AUSTRALIAN PLANT PHOTOS\proofs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362C08DD-1BEF-4ABD-90B4-F7681B41724B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBD587B-1276-428C-A98B-BB8381A5510E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{63969784-D107-411E-8F36-60BD3FE9A5B6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="243">
   <si>
     <t>Species</t>
   </si>
@@ -746,13 +747,31 @@
   </si>
   <si>
     <t>Leptosema cervicornu Crisp</t>
+  </si>
+  <si>
+    <t>New Phytologist Supporting Information</t>
+  </si>
+  <si>
+    <t>Photographs as an essential biodiversity resource: drivers of gaps in the vascular plant photographic record</t>
+  </si>
+  <si>
+    <t>Thomas Mesaglio, Hervé Sauquet, David Coleman, Elizabeth Wenk, William K Cornwell</t>
+  </si>
+  <si>
+    <t>Accepted 8 February 2023</t>
+  </si>
+  <si>
+    <t>Caption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List of all species for which photographs were located under a name different to that currently accepted by the Australian Plant Census (synonym, orthographic variant, etc.). </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -769,6 +788,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -794,12 +821,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1113,10 +1141,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3DA2299-7FBC-45AE-B284-4B99F044BE2D}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCD1DBB-CAAD-4EE9-8A38-32D9199ABA82}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
